--- a/Heuristic2/bgelarge_cosine_original/final_rank_30_bgelarge_cosine_original.xlsx
+++ b/Heuristic2/bgelarge_cosine_original/final_rank_30_bgelarge_cosine_original.xlsx
@@ -22,6 +22,9 @@
     <t>rank_group</t>
   </si>
   <si>
+    <t>500 Global Flagship VC (non-accelerator checks)</t>
+  </si>
+  <si>
     <t>U.S. Dept. of Education (EIR Program)</t>
   </si>
   <si>
@@ -34,79 +37,76 @@
     <t>Bill &amp; Melinda Gates Foundation</t>
   </si>
   <si>
-    <t>500 Global Flagship VC (non-accelerator checks)</t>
-  </si>
-  <si>
-    <t>Chan Zuckerberg Initiative (CZI)</t>
-  </si>
-  <si>
     <t>Google for Education</t>
   </si>
   <si>
     <t>National Science Foundation (NSF)</t>
   </si>
   <si>
+    <t>500 Global (seed/accelerator)</t>
+  </si>
+  <si>
     <t>IES SBIR (ED/IES)</t>
   </si>
   <si>
+    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
+  </si>
+  <si>
+    <t>Y Combinator</t>
+  </si>
+  <si>
+    <t>TGR Foundation (Tiger Woods)</t>
+  </si>
+  <si>
     <t>NSF SBIR (“America’s Seed Fund”)</t>
   </si>
   <si>
-    <t>Y Combinator</t>
-  </si>
-  <si>
-    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
-  </si>
-  <si>
-    <t>500 Global (seed/accelerator)</t>
-  </si>
-  <si>
-    <t>New York City FC - City in the Community Foundation</t>
-  </si>
-  <si>
-    <t>New York Rangers - Garden of Dreams Foundation</t>
-  </si>
-  <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
-    <t>Indiegogo</t>
-  </si>
-  <si>
-    <t>LA Clippers Foundation</t>
-  </si>
-  <si>
-    <t>Portland Timbers Community Fund</t>
-  </si>
-  <si>
-    <t>Inter Miami CF Foundation</t>
-  </si>
-  <si>
-    <t>New York Yankees Foundation</t>
-  </si>
-  <si>
-    <t>National Hockey League (NHL) Foundation U.S.</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers Community Foundation</t>
-  </si>
-  <si>
-    <t>New York Jets Foundation</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes Foundation</t>
-  </si>
-  <si>
-    <t>Indy Eleven Foundation</t>
+    <t>MIT Solve (Global Learning &amp; education tracks)</t>
+  </si>
+  <si>
+    <t>Washington Commanders Foundation</t>
+  </si>
+  <si>
+    <t>Golden State Warriors Community Foundation</t>
+  </si>
+  <si>
+    <t>NFL Foundation</t>
+  </si>
+  <si>
+    <t>Indiana Pacers Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks Foundation</t>
+  </si>
+  <si>
+    <t>D.C. United Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Bulls Charities</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs - Spurs Give</t>
+  </si>
+  <si>
+    <t>Nike Community Impact Fund</t>
+  </si>
+  <si>
+    <t>Toronto FC - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>Houston Texans Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Sounders FC RAVE Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Wild Foundation</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders Foundation</t>
   </si>
   <si>
     <t>Detroit Red Wings Foundation</t>
-  </si>
-  <si>
-    <t>DonorsChoose (technology classroom projects)</t>
-  </si>
-  <si>
-    <t>Tampa Bay Buccaneers Foundation</t>
   </si>
   <si>
     <t>Boston Red Sox Foundation</t>
